--- a/biology/Botanique/Malesherbia_linearifolia/Malesherbia_linearifolia.xlsx
+++ b/biology/Botanique/Malesherbia_linearifolia/Malesherbia_linearifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malesherbia linearifolia est une espèce de plantes à fleurs de la famille des Malesherbiaceae, selon la classification classique, de la famille des Passifloraceae, selon la classification phylogénétique. Son nom vernaculaire est « Blue Star of Cordillera ». Il est originaire de Coquimbo, Valparaiso, Metropolitana et de la région d'O'Higgins du Chili[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malesherbia linearifolia est une espèce de plantes à fleurs de la famille des Malesherbiaceae, selon la classification classique, de la famille des Passifloraceae, selon la classification phylogénétique. Son nom vernaculaire est « Blue Star of Cordillera ». Il est originaire de Coquimbo, Valparaiso, Metropolitana et de la région d'O'Higgins du Chili,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un sous-arbrisseau qui fut le premier membre du genre Malesherbia à être décrit. La description originale datant de 1797 par Cavanilles[3].
-M. Linearifolia est phénotypiquement très similaire à l'espèce sœur M. paniculata. Tous deux poussent à partir d'un rhizome, ont des inflorescences en cymes et leurs fleurs vont du bleu clair au violet foncé[3] Elles diffèrent par leurs feuilles,  M. paniculata a des feuilles pennées tandis que M. Linearifolia a des feuilles étroites[3]. Elles diffèrent également par leur aire de répartition[3].
-M. Linearifolia est pollinisée par Lasia aenea, Centris chilensis et Centris cineraria[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un sous-arbrisseau qui fut le premier membre du genre Malesherbia à être décrit. La description originale datant de 1797 par Cavanilles.
+M. Linearifolia est phénotypiquement très similaire à l'espèce sœur M. paniculata. Tous deux poussent à partir d'un rhizome, ont des inflorescences en cymes et leurs fleurs vont du bleu clair au violet foncé Elles diffèrent par leurs feuilles,  M. paniculata a des feuilles pennées tandis que M. Linearifolia a des feuilles étroites. Elles diffèrent également par leur aire de répartition.
+M. Linearifolia est pollinisée par Lasia aenea, Centris chilensis et Centris cineraria.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Malesherbia linearifolia (Cav.) Poir.[5].
-L'espèce a été initialement classée dans le genre Gynopleura sous le basionyme Gynopleura linearifolia Cav.[5].
-Malesherbia linearifolia a pour synonymes[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Malesherbia linearifolia (Cav.) Poir..
+L'espèce a été initialement classée dans le genre Gynopleura sous le basionyme Gynopleura linearifolia Cav..
+Malesherbia linearifolia a pour synonymes :
 ? subalpina Poepp.
 Gynopleura angustifolia Walp.
 Gynopleura coronata (D.Don) M.Roem.
